--- a/resultados/resultados_linearReg.xlsx
+++ b/resultados/resultados_linearReg.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5265810350881196</v>
+        <v>0.3090097963533529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1531347635151514</v>
+        <v>0.5341385099976457</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/resultados_linearReg.xlsx
+++ b/resultados/resultados_linearReg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Desvio Padrão</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +479,116 @@
       </c>
       <c r="D2" t="n">
         <v>0.5341385099976457</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4597599784197205</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4597599784197205</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4597599784197205</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4597599784197205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4597599784197205</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.2213313391999655</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4597599784197205</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/resultados_linearReg.xlsx
+++ b/resultados/resultados_linearReg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,60 @@
         <v>0.4597599784197205</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.2192459223899512</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4606606177614122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.3244828737145188</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5123387565854233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>27.03351604611587</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.050008388351851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
